--- a/TEST/RSSI+Distance.xlsx
+++ b/TEST/RSSI+Distance.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming_test\IndependentStudy_ICANLAB\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05246870-1F67-40F5-8DEC-62227AC2D710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D481682E-99D0-4F28-B42A-A06DEC6E5208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EvaluationTable" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">EvaluationTable!$A$2:$A$472</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">EvaluationTable!$B$2:$B$472</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">EvaluationTable!$C$2:$C$472</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">EvaluationTable!$D$2:$D$472</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -135,6 +129,74 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>RSSI+Distance</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -8798,6 +8860,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Iteration</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8820,16 +8950,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-TW"/>
@@ -8882,16 +9009,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-TW"/>
@@ -8924,16 +9048,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-TW"/>
@@ -9544,16 +9665,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>188118</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>471486</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>69054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>52387</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>73818</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9869,7 +9990,7 @@
   <dimension ref="A1:D472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>

--- a/TEST/RSSI+Distance.xlsx
+++ b/TEST/RSSI+Distance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming_test\IndependentStudy_ICANLAB\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D481682E-99D0-4F28-B42A-A06DEC6E5208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E8A801-2CF8-4264-AAF0-DBF321344802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW" b="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -160,7 +160,7 @@
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US" b="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -212,7 +212,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3081,7 +3081,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -8869,10 +8869,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8882,7 +8879,7 @@
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-TW" b="1">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -8891,7 +8888,7 @@
                 </a:r>
                 <a:endParaRPr lang="zh-TW" altLang="en-US" b="1">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -8914,10 +8911,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -8952,7 +8946,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -9011,7 +9005,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -9035,6 +9029,46 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>

--- a/TEST/RSSI+Distance.xlsx
+++ b/TEST/RSSI+Distance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming_test\IndependentStudy_ICANLAB\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E8A801-2CF8-4264-AAF0-DBF321344802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D481682E-99D0-4F28-B42A-A06DEC6E5208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW" b="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -160,7 +160,7 @@
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US" b="1">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -212,7 +212,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3081,7 +3081,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -8869,7 +8869,10 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8879,7 +8882,7 @@
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-TW" b="1">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -8888,7 +8891,7 @@
                 </a:r>
                 <a:endParaRPr lang="zh-TW" altLang="en-US" b="1">
                   <a:solidFill>
-                    <a:schemeClr val="bg1"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -8911,7 +8914,10 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -8946,7 +8952,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -9005,7 +9011,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -9029,46 +9035,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
